--- a/biology/Botanique/Botanique_horticole/Botanique_horticole.xlsx
+++ b/biology/Botanique/Botanique_horticole/Botanique_horticole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La  botanique horticole est le domaine d'étude des plantes cultivées, notamment des plantes ornementales.
 </t>
@@ -511,7 +523,9 @@
           <t>Botanistes horticoles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les botanistes horticoles professionnels sont employés par les jardins botaniques, les grandes pépinières, les départements universitaires, et les agences gouvernementales. Les activités varient selon les objectifs de la mission et les priorités des institutions. 
 Elles peuvent inclure :
@@ -550,7 +564,9 @@
           <t>Taxinomie des plantes cultivées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La préoccupation principale des botanistes horticoles a été la taxinomie des plantes cultivées. Cette préoccupation est soutenue désormais par l'Association internationale de taxinomie des plantes cultivées, créée en 2007.
 </t>
